--- a/biology/Botanique/Ophrys_guêpe/Ophrys_guêpe.xlsx
+++ b/biology/Botanique/Ophrys_guêpe/Ophrys_guêpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ophrys_gu%C3%AApe</t>
+          <t>Ophrys_guêpe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophrys tenthredinifera
 L’Ophrys guêpe ou Ophrys tenthrède (Ophrys tenthredinifera) est une espèce d'orchidée terrestre d'aire méditerranéenne occidentale, appartenant au genre Ophrys et au groupe Ophrys tenthredinifera.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ophrys_gu%C3%AApe</t>
+          <t>Ophrys_guêpe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec tenthredôn (guêpe) et du latin fero (je porte), se référant à la forme des fleurs.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ophrys_gu%C3%AApe</t>
+          <t>Ophrys_guêpe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante : 10-40 cm, d'aspect robuste, à l'inflorescence plutôt lâche.
 Feuilles : 5 à 8, basilaires et caulinaires, vert mat.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ophrys_gu%C3%AApe</t>
+          <t>Ophrys_guêpe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Février (Afrique du Nord) à avril. C'est l'une des orchidées printanières les plus précoces.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ophrys_gu%C3%AApe</t>
+          <t>Ophrys_guêpe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">0-400 m. Pelouses, garrigues, maquis, parfois bois clairs, sur substrats alcalins à faiblement acides.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ophrys_gu%C3%AApe</t>
+          <t>Ophrys_guêpe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Aire méditerranéenne occidentale : Maghreb, Espagne, Portugal, France. Très rare en France (en limite d'aire) : Aude, Pyrénées-Orientales, Corse, Tarn.
 </t>
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ophrys_gu%C3%AApe</t>
+          <t>Ophrys_guêpe</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,7 +692,9 @@
           <t>Menace et Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>L'Ophrys guêpe est une espèce menacée :
 Protégée en France sur le plan national, se trouvant à ce titre sur la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain (rubrique Monocotylédones) ;
